--- a/biology/Zoologie/Accord_sur_la_conservation_des_cétacés_de_la_mer_Noire,_de_la_Méditerranée_et_de_la_zone_Atlantique_adjacente/Accord_sur_la_conservation_des_cétacés_de_la_mer_Noire,_de_la_Méditerranée_et_de_la_zone_Atlantique_adjacente.xlsx
+++ b/biology/Zoologie/Accord_sur_la_conservation_des_cétacés_de_la_mer_Noire,_de_la_Méditerranée_et_de_la_zone_Atlantique_adjacente/Accord_sur_la_conservation_des_cétacés_de_la_mer_Noire,_de_la_Méditerranée_et_de_la_zone_Atlantique_adjacente.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Accord_sur_la_conservation_des_c%C3%A9tac%C3%A9s_de_la_mer_Noire,_de_la_M%C3%A9diterran%C3%A9e_et_de_la_zone_Atlantique_adjacente</t>
+          <t>Accord_sur_la_conservation_des_cétacés_de_la_mer_Noire,_de_la_Méditerranée_et_de_la_zone_Atlantique_adjacente</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Accord sur la Conservation des Cétacés de la Mer Noire, de la Méditerranée et de la zone Atlantique adjacente (ACCOBAMS) est un outil juridique de conservation de la biodiversité basé sur la coopération. Son objectif est de réduire les menaces qui pèsent sur les cétacés notamment en améliorant l’état des connaissances sur ces animaux.
 Cet accord intergouvernemental concrétise la volonté des pays parties de préserver toutes les espèces de cétacés et leurs habitats dans l’aire géographique de l’accord, en imposant des mesures plus restrictives que celles définies dans les textes précédemment adoptés[source secondaire souhaitée].
